--- a/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7710D079-1EBF-4A65-A243-A697265E30BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31497050-2674-4C04-AC04-EE7F610FB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{170305AF-89B9-42FC-ADBE-0A5BB42BF996}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A2D4F0B-D325-4D1F-BBA1-EB0E8B684C80}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="351">
   <si>
     <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
   </si>
@@ -86,1012 +86,1006 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,89%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>18,15%</t>
+    <t>15,95%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
+    <t>20,74%</t>
+  </si>
+  <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>60,4%</t>
+    <t>60,56%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>55,57%</t>
+    <t>50,74%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>49,87%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>26,81%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>54,1%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>25,91%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1506,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC719934-E2E7-4FFE-BD82-836395CC71B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755A4211-BADE-400F-B4A5-6865CA18771B}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1891,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1900,13 +1894,13 @@
         <v>1709</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1915,13 +1909,13 @@
         <v>2702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2032,13 @@
         <v>5894</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2053,13 +2047,13 @@
         <v>894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2068,13 +2062,13 @@
         <v>6789</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2083,13 @@
         <v>13980</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2104,13 +2098,13 @@
         <v>3610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2119,13 +2113,13 @@
         <v>17590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2134,13 @@
         <v>2138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2155,13 +2149,13 @@
         <v>1025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2170,13 +2164,13 @@
         <v>3163</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2185,13 @@
         <v>23938</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -2206,13 +2200,13 @@
         <v>7239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>32</v>
@@ -2221,18 +2215,18 @@
         <v>31177</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2250,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2265,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2280,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2316,7 +2310,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2331,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2340,13 @@
         <v>3809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2367,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2376,13 +2370,13 @@
         <v>3809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2418,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2433,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2442,13 @@
         <v>3499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2469,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2478,13 +2472,13 @@
         <v>3499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2493,13 @@
         <v>5091</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2520,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2529,13 +2523,13 @@
         <v>5091</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>1247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2565,13 +2559,13 @@
         <v>898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2580,13 +2574,13 @@
         <v>2146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2595,13 @@
         <v>4066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2622,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2631,13 +2625,13 @@
         <v>4066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2646,13 @@
         <v>19439</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2667,13 +2661,13 @@
         <v>881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2682,13 +2676,13 @@
         <v>20320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2697,13 @@
         <v>26807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2718,13 +2712,13 @@
         <v>5625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2733,13 +2727,13 @@
         <v>32433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2748,13 @@
         <v>4348</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2769,13 +2763,13 @@
         <v>898</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2784,13 +2778,13 @@
         <v>5247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2799,13 @@
         <v>68306</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -2820,13 +2814,13 @@
         <v>8303</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>75</v>
@@ -2835,18 +2829,18 @@
         <v>76610</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2858,13 +2852,13 @@
         <v>1472</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2879,7 +2873,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2888,13 +2882,13 @@
         <v>1472</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2930,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2981,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3032,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3062,13 +3056,13 @@
         <v>2239</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3077,13 +3071,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3092,13 +3086,13 @@
         <v>3775</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,14 +3107,14 @@
         <v>1072</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
@@ -3134,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3143,13 +3137,13 @@
         <v>1072</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3164,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3215,13 +3209,13 @@
         <v>2055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3230,13 +3224,13 @@
         <v>996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3245,13 +3239,13 @@
         <v>3051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3368,7 @@
         <v>162</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -3383,13 +3377,13 @@
         <v>6890</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M38" s="7">
         <v>24</v>
@@ -3398,13 +3392,13 @@
         <v>26099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3413,13 @@
         <v>139992</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
         <v>42</v>
@@ -3434,13 +3428,13 @@
         <v>41805</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
         <v>168</v>
@@ -3449,18 +3443,18 @@
         <v>181797</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3478,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3493,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3508,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3517,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3544,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3589,13 +3583,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -3604,13 +3598,13 @@
         <v>8382</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3640,13 +3634,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3655,13 +3649,13 @@
         <v>929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3697,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3712,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,14 +3721,14 @@
         <v>3206</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
@@ -3748,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -3757,13 +3751,13 @@
         <v>3206</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>174</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,14 +3772,14 @@
         <v>1047</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
@@ -3799,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3988,7 +3982,7 @@
         <v>221</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="H50" s="7">
         <v>6</v>
@@ -3997,13 +3991,13 @@
         <v>6690</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -4012,10 +4006,10 @@
         <v>14101</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>227</v>
@@ -4033,13 +4027,13 @@
         <v>97584</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="7">
         <v>29</v>
@@ -4048,13 +4042,13 @@
         <v>29702</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51" s="7">
         <v>117</v>
@@ -4063,13 +4057,13 @@
         <v>127286</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,10 +4440,10 @@
         <v>248</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4458,13 +4452,13 @@
         <v>2904</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="L59" s="7" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="M59" s="7">
         <v>12</v>
@@ -4473,13 +4467,13 @@
         <v>11386</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>43349</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H60" s="7">
         <v>15</v>
@@ -4509,13 +4503,13 @@
         <v>15606</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M60" s="7">
         <v>58</v>
@@ -4524,13 +4518,13 @@
         <v>58955</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4539,13 @@
         <v>58840</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H61" s="7">
         <v>37</v>
@@ -4560,13 +4554,13 @@
         <v>37877</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M61" s="7">
         <v>95</v>
@@ -4575,13 +4569,13 @@
         <v>96717</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4590,13 @@
         <v>18922</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H62" s="7">
         <v>13</v>
@@ -4611,13 +4605,13 @@
         <v>13900</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M62" s="7">
         <v>31</v>
@@ -4626,13 +4620,13 @@
         <v>32822</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4641,13 @@
         <v>140254</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" s="7">
         <v>68</v>
@@ -4662,13 +4656,13 @@
         <v>70287</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M63" s="7">
         <v>205</v>
@@ -4677,13 +4671,13 @@
         <v>210541</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4694,13 @@
         <v>1472</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4721,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4757,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4772,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4781,13 +4775,13 @@
         <v>1022</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4796,13 @@
         <v>15410</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4817,13 +4811,13 @@
         <v>2049</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M66" s="7">
         <v>16</v>
@@ -4832,13 +4826,13 @@
         <v>17459</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4847,13 @@
         <v>1237</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4868,13 +4862,13 @@
         <v>929</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4883,13 +4877,13 @@
         <v>2166</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4898,13 @@
         <v>6671</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4919,13 +4913,13 @@
         <v>1536</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -4934,13 +4928,13 @@
         <v>8207</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4949,13 @@
         <v>11418</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -4970,13 +4964,13 @@
         <v>1709</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M69" s="7">
         <v>13</v>
@@ -4985,13 +4979,13 @@
         <v>13127</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5000,13 @@
         <v>10041</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5021,13 +5015,13 @@
         <v>1783</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="M70" s="7">
         <v>10</v>
@@ -5036,13 +5030,13 @@
         <v>11824</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5051,13 @@
         <v>27439</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H71" s="7">
         <v>6</v>
@@ -5072,10 +5066,10 @@
         <v>5877</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>323</v>
@@ -5087,13 +5081,13 @@
         <v>33317</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>324</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5102,13 @@
         <v>135827</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H72" s="7">
         <v>33</v>
@@ -5123,13 +5117,13 @@
         <v>33401</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M72" s="7">
         <v>163</v>
@@ -5138,13 +5132,13 @@
         <v>169228</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5153,13 @@
         <v>207511</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H73" s="7">
         <v>81</v>
@@ -5174,13 +5168,13 @@
         <v>80647</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M73" s="7">
         <v>278</v>
@@ -5189,10 +5183,10 @@
         <v>288158</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>342</v>
@@ -5228,10 +5222,10 @@
         <v>346</v>
       </c>
       <c r="K74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M74" s="7">
         <v>75</v>
@@ -5240,13 +5234,13 @@
         <v>81431</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5255,13 @@
         <v>470075</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" s="7">
         <v>156</v>
@@ -5276,13 +5270,13 @@
         <v>157336</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M75" s="7">
         <v>597</v>
@@ -5291,18 +5285,18 @@
         <v>627411</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31497050-2674-4C04-AC04-EE7F610FB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7494E37F-C287-4C02-AFFC-5C9A497DA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A2D4F0B-D325-4D1F-BBA1-EB0E8B684C80}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4F0374-5D59-456A-9D18-4248AD4E42F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="351">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2015 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="359">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,25 +86,25 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>15,95%</t>
+    <t>15,55%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>20,74%</t>
+    <t>20,86%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>60,56%</t>
+    <t>62,22%</t>
   </si>
   <si>
     <t>8,67%</t>
@@ -113,853 +113,862 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>23,29%</t>
+    <t>23,09%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>50,74%</t>
+    <t>50,58%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>49,87%</t>
   </si>
   <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>4,2%</t>
@@ -974,70 +983,76 @@
     <t>2,09%</t>
   </si>
   <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>23,68%</t>
+    <t>23,48%</t>
   </si>
   <si>
     <t>30,87%</t>
@@ -1046,46 +1061,55 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>49,86%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>12,98%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1500,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755A4211-BADE-400F-B4A5-6865CA18771B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC98E25-AED3-4105-8091-81CF9CA1EC34}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,10 +2550,10 @@
         <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2568,13 @@
         <v>1247</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2559,13 +2583,13 @@
         <v>898</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2574,13 +2598,13 @@
         <v>2146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2619,13 @@
         <v>4066</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2625,13 +2649,13 @@
         <v>4066</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2670,13 @@
         <v>19439</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2661,13 +2685,13 @@
         <v>881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2676,13 +2700,13 @@
         <v>20320</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2721,13 @@
         <v>26807</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2712,13 +2736,13 @@
         <v>5625</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2727,13 +2751,13 @@
         <v>32433</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2772,13 @@
         <v>4348</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2763,13 +2787,13 @@
         <v>898</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2778,13 +2802,13 @@
         <v>5247</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2864,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2852,28 +2876,28 @@
         <v>1472</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2882,13 +2906,13 @@
         <v>1472</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2924,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2975,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3026,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3056,13 +3080,13 @@
         <v>2239</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3071,13 +3095,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3086,13 +3110,13 @@
         <v>3775</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3131,13 @@
         <v>1072</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3128,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3137,13 +3161,13 @@
         <v>1072</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3188,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3173,13 +3197,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3188,13 +3212,13 @@
         <v>1841</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3233,13 @@
         <v>2055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3224,13 +3248,13 @@
         <v>996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3239,13 +3263,13 @@
         <v>3051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3284,13 @@
         <v>42046</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -3275,13 +3299,13 @@
         <v>12000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -3290,13 +3314,13 @@
         <v>54046</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3335,13 @@
         <v>67252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3326,13 +3350,13 @@
         <v>19499</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
@@ -3341,13 +3365,13 @@
         <v>86751</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3386,13 @@
         <v>19209</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -3377,13 +3401,13 @@
         <v>6890</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M38" s="7">
         <v>24</v>
@@ -3392,13 +3416,13 @@
         <v>26099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3478,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3472,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3487,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3502,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3541,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3538,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3547,13 +3571,13 @@
         <v>1022</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3592,13 @@
         <v>6333</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3583,13 +3607,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -3598,13 +3622,13 @@
         <v>8382</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3634,13 +3658,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3649,13 +3673,13 @@
         <v>929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3691,7 +3715,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3706,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3745,13 @@
         <v>3206</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3742,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -3754,10 +3778,10 @@
         <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3796,13 @@
         <v>1047</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3793,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3802,13 +3826,13 @@
         <v>1047</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3847,13 @@
         <v>12836</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3838,13 +3862,13 @@
         <v>1977</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M47" s="7">
         <v>12</v>
@@ -3853,13 +3877,13 @@
         <v>14814</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3898,13 @@
         <v>25098</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -3889,13 +3913,13 @@
         <v>4020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M48" s="7">
         <v>27</v>
@@ -3904,13 +3928,13 @@
         <v>29119</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3949,13 @@
         <v>40631</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H49" s="7">
         <v>14</v>
@@ -3940,13 +3964,13 @@
         <v>14036</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M49" s="7">
         <v>52</v>
@@ -3955,13 +3979,13 @@
         <v>54667</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4000,13 @@
         <v>7411</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="H50" s="7">
         <v>6</v>
@@ -3991,13 +4015,13 @@
         <v>6690</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M50" s="7">
         <v>12</v>
@@ -4006,13 +4030,13 @@
         <v>14101</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4092,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4086,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4101,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4116,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4152,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4167,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,14 +4206,14 @@
         <v>2815</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
@@ -4203,7 +4227,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4212,13 +4236,13 @@
         <v>2815</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4254,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4269,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4305,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4320,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4359,13 @@
         <v>1055</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4356,7 +4380,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4365,13 +4389,13 @@
         <v>1055</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4410,13 @@
         <v>6791</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4407,7 +4431,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M58" s="7">
         <v>5</v>
@@ -4416,13 +4440,13 @@
         <v>6791</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4461,13 @@
         <v>8482</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4452,13 +4476,13 @@
         <v>2904</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M59" s="7">
         <v>12</v>
@@ -4467,13 +4491,13 @@
         <v>11386</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4512,13 @@
         <v>43349</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H60" s="7">
         <v>15</v>
@@ -4503,13 +4527,13 @@
         <v>15606</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M60" s="7">
         <v>58</v>
@@ -4518,13 +4542,13 @@
         <v>58955</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4563,13 @@
         <v>58840</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H61" s="7">
         <v>37</v>
@@ -4554,13 +4578,13 @@
         <v>37877</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M61" s="7">
         <v>95</v>
@@ -4569,13 +4593,13 @@
         <v>96717</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4614,13 @@
         <v>18922</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H62" s="7">
         <v>13</v>
@@ -4605,13 +4629,13 @@
         <v>13900</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M62" s="7">
         <v>31</v>
@@ -4620,13 +4644,13 @@
         <v>32822</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4718,13 @@
         <v>1472</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4715,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4724,13 +4748,13 @@
         <v>1472</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4769,13 @@
         <v>1022</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4766,7 +4790,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4775,13 +4799,13 @@
         <v>1022</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4820,13 @@
         <v>15410</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>291</v>
+        <v>101</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4811,13 +4835,13 @@
         <v>2049</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M66" s="7">
         <v>16</v>
@@ -4826,13 +4850,13 @@
         <v>17459</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4871,13 @@
         <v>1237</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4862,13 +4886,13 @@
         <v>929</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4877,13 +4901,13 @@
         <v>2166</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4922,13 @@
         <v>6671</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4913,13 +4937,13 @@
         <v>1536</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -4928,13 +4952,13 @@
         <v>8207</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4973,13 @@
         <v>11418</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -4964,13 +4988,13 @@
         <v>1709</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M69" s="7">
         <v>13</v>
@@ -4979,13 +5003,13 @@
         <v>13127</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5024,13 @@
         <v>10041</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5015,13 +5039,13 @@
         <v>1783</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="M70" s="7">
         <v>10</v>
@@ -5030,13 +5054,13 @@
         <v>11824</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5075,13 @@
         <v>27439</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H71" s="7">
         <v>6</v>
@@ -5066,13 +5090,13 @@
         <v>5877</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M71" s="7">
         <v>31</v>
@@ -5081,13 +5105,13 @@
         <v>33317</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5126,13 @@
         <v>135827</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H72" s="7">
         <v>33</v>
@@ -5117,13 +5141,13 @@
         <v>33401</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M72" s="7">
         <v>163</v>
@@ -5132,13 +5156,13 @@
         <v>169228</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5177,13 @@
         <v>207511</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H73" s="7">
         <v>81</v>
@@ -5168,13 +5192,13 @@
         <v>80647</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M73" s="7">
         <v>278</v>
@@ -5183,13 +5207,13 @@
         <v>288158</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5228,13 @@
         <v>52028</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H74" s="7">
         <v>28</v>
@@ -5219,13 +5243,13 @@
         <v>29404</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M74" s="7">
         <v>75</v>
@@ -5234,13 +5258,13 @@
         <v>81431</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>88</v>
+        <v>356</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5320,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D2H-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7494E37F-C287-4C02-AFFC-5C9A497DA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF14B27-AA6B-4DC9-BDC1-673B404871BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4F0374-5D59-456A-9D18-4248AD4E42F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18D13D5B-9114-4CC3-B585-05560E3D126F}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="359">
-  <si>
-    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 9,09%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="257">
+  <si>
+    <t>Población según el número de horas por día durante las que  realizó actividades físicas intensas en 2016 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1042 +74,736 @@
     <t>0%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1524,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC98E25-AED3-4105-8091-81CF9CA1EC34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35492E4B-BC28-4949-B8FD-8366A00FDC70}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2152,49 +1846,49 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7">
-        <v>2138</v>
+        <v>94746</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>1025</v>
+        <v>107147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="N14" s="7">
-        <v>3163</v>
+        <v>201893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,54 +1897,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>23938</v>
+        <v>116546</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>7239</v>
+        <v>113360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="N15" s="7">
-        <v>31177</v>
+        <v>229906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2268,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2283,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2298,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2013,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2334,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2349,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2058,13 @@
         <v>3809</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2385,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2394,10 +2088,10 @@
         <v>3809</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>60</v>
@@ -2421,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2436,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2451,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,11 +2163,11 @@
         <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -2487,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2496,13 +2190,13 @@
         <v>3499</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2211,13 @@
         <v>5091</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2538,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2547,13 +2241,13 @@
         <v>5091</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,28 +2262,28 @@
         <v>1247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2598,13 +2292,13 @@
         <v>2146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2313,13 @@
         <v>4066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2640,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2649,13 +2343,13 @@
         <v>4066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2364,13 @@
         <v>19439</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2685,13 +2379,13 @@
         <v>881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2700,13 +2394,13 @@
         <v>20320</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2415,13 @@
         <v>26807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2736,13 +2430,13 @@
         <v>5625</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2751,13 +2445,13 @@
         <v>32433</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,49 +2460,49 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>476</v>
       </c>
       <c r="D26" s="7">
-        <v>4348</v>
+        <v>493247</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="I26" s="7">
-        <v>898</v>
+        <v>549368</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>5</v>
+        <v>1016</v>
       </c>
       <c r="N26" s="7">
-        <v>5247</v>
+        <v>1042615</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,54 +2511,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>66</v>
+        <v>538</v>
       </c>
       <c r="D27" s="7">
-        <v>68306</v>
+        <v>557205</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>9</v>
+        <v>548</v>
       </c>
       <c r="I27" s="7">
-        <v>8303</v>
+        <v>556773</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>75</v>
+        <v>1086</v>
       </c>
       <c r="N27" s="7">
-        <v>76610</v>
+        <v>1113978</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2876,13 +2570,13 @@
         <v>1472</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2897,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2906,13 +2600,13 @@
         <v>1472</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2948,7 +2642,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2963,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2672,13 @@
         <v>2453</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2999,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -3008,13 +2702,13 @@
         <v>2453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +2723,13 @@
         <v>1237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3050,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3059,13 +2753,13 @@
         <v>1237</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +2774,13 @@
         <v>2239</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3095,13 +2789,13 @@
         <v>1536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3110,13 +2804,13 @@
         <v>3775</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +2825,13 @@
         <v>1072</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3152,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3161,13 +2855,13 @@
         <v>1072</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +2876,13 @@
         <v>957</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3197,13 +2891,13 @@
         <v>884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3212,13 +2906,13 @@
         <v>1841</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +2927,13 @@
         <v>2055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3248,13 +2942,13 @@
         <v>996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3263,13 +2957,13 @@
         <v>3051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +2978,13 @@
         <v>42046</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -3299,13 +2993,13 @@
         <v>12000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -3314,13 +3008,13 @@
         <v>54046</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,16 +3026,16 @@
         <v>60</v>
       </c>
       <c r="D37" s="7">
-        <v>67252</v>
+        <v>67253</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -3350,13 +3044,13 @@
         <v>19499</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
@@ -3365,13 +3059,13 @@
         <v>86751</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3074,49 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>17</v>
+        <v>836</v>
       </c>
       <c r="D38" s="7">
-        <v>19209</v>
+        <v>894920</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="H38" s="7">
-        <v>7</v>
+        <v>937</v>
       </c>
       <c r="I38" s="7">
-        <v>6890</v>
+        <v>1002603</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M38" s="7">
-        <v>24</v>
+        <v>1773</v>
       </c>
       <c r="N38" s="7">
-        <v>26099</v>
+        <v>1897523</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,54 +3125,54 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>126</v>
+        <v>945</v>
       </c>
       <c r="D39" s="7">
-        <v>139992</v>
+        <v>1015704</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
-        <v>42</v>
+        <v>972</v>
       </c>
       <c r="I39" s="7">
-        <v>41805</v>
+        <v>1037518</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
-        <v>168</v>
+        <v>1917</v>
       </c>
       <c r="N39" s="7">
-        <v>181797</v>
+        <v>2053222</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3496,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3511,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3526,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3235,13 @@
         <v>1022</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3562,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3571,13 +3265,13 @@
         <v>1022</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3286,13 @@
         <v>6333</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3607,13 +3301,13 @@
         <v>2049</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M42" s="7">
         <v>8</v>
@@ -3622,13 +3316,13 @@
         <v>8382</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3658,13 +3352,13 @@
         <v>929</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3673,13 +3367,13 @@
         <v>929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3394,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3715,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3730,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3439,13 @@
         <v>3206</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3766,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -3775,13 +3469,13 @@
         <v>3206</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3490,13 @@
         <v>1047</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3817,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3826,13 +3520,13 @@
         <v>1047</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3541,13 @@
         <v>12836</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3862,28 +3556,28 @@
         <v>1977</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="M47" s="7">
         <v>12</v>
       </c>
       <c r="N47" s="7">
-        <v>14814</v>
+        <v>14813</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,16 +3589,16 @@
         <v>23</v>
       </c>
       <c r="D48" s="7">
-        <v>25098</v>
+        <v>25099</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -3913,13 +3607,13 @@
         <v>4020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="M48" s="7">
         <v>27</v>
@@ -3928,13 +3622,13 @@
         <v>29119</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3643,13 @@
         <v>40631</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="H49" s="7">
         <v>14</v>
@@ -3964,13 +3658,13 @@
         <v>14036</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="M49" s="7">
         <v>52</v>
@@ -3979,13 +3673,13 @@
         <v>54667</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,49 +3688,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>6</v>
+        <v>611</v>
       </c>
       <c r="D50" s="7">
-        <v>7411</v>
+        <v>666201</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="H50" s="7">
-        <v>6</v>
+        <v>712</v>
       </c>
       <c r="I50" s="7">
-        <v>6690</v>
+        <v>760431</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="M50" s="7">
-        <v>12</v>
+        <v>1323</v>
       </c>
       <c r="N50" s="7">
-        <v>14101</v>
+        <v>1426631</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,54 +3739,54 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>88</v>
+        <v>693</v>
       </c>
       <c r="D51" s="7">
-        <v>97584</v>
+        <v>756374</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H51" s="7">
-        <v>29</v>
+        <v>735</v>
       </c>
       <c r="I51" s="7">
-        <v>29702</v>
+        <v>783443</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="7">
-        <v>117</v>
+        <v>1428</v>
       </c>
       <c r="N51" s="7">
-        <v>127286</v>
+        <v>1539816</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4110,7 +3804,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -4125,7 +3819,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -4140,7 +3834,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,7 +3855,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4176,7 +3870,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4191,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +3900,13 @@
         <v>2815</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4227,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4236,13 +3930,13 @@
         <v>2815</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +3957,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4278,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4293,7 +3987,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -4329,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -4344,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4053,13 @@
         <v>1055</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4380,7 +4074,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4389,13 +4083,13 @@
         <v>1055</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4104,13 @@
         <v>6791</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -4431,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="M58" s="7">
         <v>5</v>
@@ -4440,13 +4134,13 @@
         <v>6791</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4155,13 @@
         <v>8482</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4476,13 +4170,13 @@
         <v>2904</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="M59" s="7">
         <v>12</v>
@@ -4491,13 +4185,13 @@
         <v>11386</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4206,13 @@
         <v>43349</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="H60" s="7">
         <v>15</v>
@@ -4527,13 +4221,13 @@
         <v>15606</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="M60" s="7">
         <v>58</v>
@@ -4542,13 +4236,13 @@
         <v>58955</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4257,13 @@
         <v>58840</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="H61" s="7">
         <v>37</v>
@@ -4578,13 +4272,13 @@
         <v>37877</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="M61" s="7">
         <v>95</v>
@@ -4593,13 +4287,13 @@
         <v>96717</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,49 +4302,49 @@
         <v>0</v>
       </c>
       <c r="C62" s="7">
-        <v>18</v>
+        <v>807</v>
       </c>
       <c r="D62" s="7">
-        <v>18922</v>
+        <v>809258</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H62" s="7">
-        <v>13</v>
+        <v>899</v>
       </c>
       <c r="I62" s="7">
-        <v>13900</v>
+        <v>981858</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="M62" s="7">
-        <v>31</v>
+        <v>1706</v>
       </c>
       <c r="N62" s="7">
-        <v>32822</v>
+        <v>1791117</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,49 +4353,49 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
-        <v>137</v>
+        <v>926</v>
       </c>
       <c r="D63" s="7">
-        <v>140254</v>
+        <v>930590</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H63" s="7">
-        <v>68</v>
+        <v>954</v>
       </c>
       <c r="I63" s="7">
-        <v>70287</v>
+        <v>1038246</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M63" s="7">
-        <v>205</v>
+        <v>1880</v>
       </c>
       <c r="N63" s="7">
-        <v>210541</v>
+        <v>1968836</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4412,13 @@
         <v>1472</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4739,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -4748,13 +4442,13 @@
         <v>1472</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>288</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4463,13 @@
         <v>1022</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>290</v>
+        <v>68</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4790,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -4799,13 +4493,13 @@
         <v>1022</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4514,13 @@
         <v>15410</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4835,13 +4529,13 @@
         <v>2049</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="M66" s="7">
         <v>16</v>
@@ -4850,13 +4544,13 @@
         <v>17459</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4565,13 @@
         <v>1237</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4886,13 +4580,13 @@
         <v>929</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4901,13 +4595,13 @@
         <v>2166</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4616,13 @@
         <v>6671</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -4937,13 +4631,13 @@
         <v>1536</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -4952,13 +4646,13 @@
         <v>8207</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4667,13 @@
         <v>11418</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -4988,13 +4682,13 @@
         <v>1709</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="M69" s="7">
         <v>13</v>
@@ -5003,13 +4697,13 @@
         <v>13127</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +4718,13 @@
         <v>10041</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>317</v>
+        <v>153</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5039,13 +4733,13 @@
         <v>1783</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="M70" s="7">
         <v>10</v>
@@ -5054,13 +4748,13 @@
         <v>11824</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>322</v>
+        <v>68</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +4769,13 @@
         <v>27439</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>325</v>
+        <v>109</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="H71" s="7">
         <v>6</v>
@@ -5090,13 +4784,13 @@
         <v>5877</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="M71" s="7">
         <v>31</v>
@@ -5105,13 +4799,13 @@
         <v>33317</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +4820,13 @@
         <v>135827</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="H72" s="7">
         <v>33</v>
@@ -5141,13 +4835,13 @@
         <v>33401</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="M72" s="7">
         <v>163</v>
@@ -5156,13 +4850,13 @@
         <v>169228</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +4871,13 @@
         <v>207511</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="H73" s="7">
         <v>81</v>
@@ -5192,13 +4886,13 @@
         <v>80647</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="M73" s="7">
         <v>278</v>
@@ -5207,13 +4901,13 @@
         <v>288158</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>348</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,49 +4916,49 @@
         <v>0</v>
       </c>
       <c r="C74" s="7">
-        <v>47</v>
+        <v>2821</v>
       </c>
       <c r="D74" s="7">
-        <v>52028</v>
+        <v>2958372</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="H74" s="7">
-        <v>28</v>
+        <v>3196</v>
       </c>
       <c r="I74" s="7">
-        <v>29404</v>
+        <v>3401407</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="M74" s="7">
-        <v>75</v>
+        <v>6017</v>
       </c>
       <c r="N74" s="7">
-        <v>81431</v>
+        <v>6359779</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,54 +4967,54 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>441</v>
+        <v>3215</v>
       </c>
       <c r="D75" s="7">
-        <v>470075</v>
+        <v>3376419</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H75" s="7">
-        <v>156</v>
+        <v>3324</v>
       </c>
       <c r="I75" s="7">
-        <v>157336</v>
+        <v>3529339</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M75" s="7">
-        <v>597</v>
+        <v>6539</v>
       </c>
       <c r="N75" s="7">
-        <v>627411</v>
+        <v>6905758</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
